--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_17_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1473246.838944706</v>
+        <v>1470994.759233499</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>193.4106714404651</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>74.2511672348987</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>57.80476500537225</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>158.2010663581989</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>92.47445699814396</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>183.1642512458429</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991602</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>143.0812453977549</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>290.4167982937691</v>
+        <v>366.718792077036</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>85.47654389282634</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>182.0872265188768</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>114.720561100776</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756242</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>137.5999985461724</v>
+        <v>35.41770597126713</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>74.99129529219201</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>95.12712756824172</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>201.6872981174345</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>41.02686156550228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2555,13 +2555,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>75.7590545620421</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>7.61374123523283</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>80.08971311158751</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>128.1870493703709</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>88.42183553064734</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>38.61213096654735</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.5813113004308</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796265</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="C2" t="n">
-        <v>552.8079389392149</v>
+        <v>1813.303537713131</v>
       </c>
       <c r="D2" t="n">
-        <v>194.5422403324644</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>194.5422403324644</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>2182.266054653543</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,13 +4422,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>625.8811108217975</v>
+        <v>981.0661490344786</v>
       </c>
       <c r="C4" t="n">
-        <v>456.9449278938906</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4483,55 +4483,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1705.527932658019</v>
+        <v>1638.191681214135</v>
       </c>
       <c r="V4" t="n">
-        <v>1545.728875730545</v>
+        <v>1383.507193008248</v>
       </c>
       <c r="W4" t="n">
-        <v>1256.311705693585</v>
+        <v>1383.507193008248</v>
       </c>
       <c r="X4" t="n">
-        <v>1028.322154795567</v>
+        <v>1383.507193008248</v>
       </c>
       <c r="Y4" t="n">
-        <v>807.5295756520372</v>
+        <v>1162.714613864718</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>3121.906610713899</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4632,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>752.7622949738568</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>583.8261120459499</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>433.7094726336142</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>285.796379051221</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>138.9064315533107</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672847</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W7" t="n">
-        <v>1501.251696170064</v>
+        <v>1383.192889845644</v>
       </c>
       <c r="X7" t="n">
-        <v>1273.262145272047</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>934.4107598040965</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4835,19 +4835,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.5429342656</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2621.07717600452</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697682</v>
+        <v>1644.355021708206</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>699.4849621798493</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>530.5487792519424</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>380.4321398396066</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1840.954604762406</v>
       </c>
       <c r="V10" t="n">
-        <v>1513.842048484845</v>
+        <v>1586.270116556519</v>
       </c>
       <c r="W10" t="n">
-        <v>1329.915557051636</v>
+        <v>1296.852946519558</v>
       </c>
       <c r="X10" t="n">
-        <v>1101.926006153619</v>
+        <v>1068.863395621541</v>
       </c>
       <c r="Y10" t="n">
-        <v>881.133427010089</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5118,19 +5118,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>984.5467179762953</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C13" t="n">
-        <v>815.6105350483884</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D13" t="n">
-        <v>665.4938956360527</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,7 +5215,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
@@ -5227,22 +5227,22 @@
         <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y13" t="n">
-        <v>1166.195182806535</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1090.767110287002</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>921.8309273590953</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D16" t="n">
-        <v>771.7142879467596</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E16" t="n">
-        <v>623.8011943643664</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,7 +5452,7 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
@@ -5461,25 +5461,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258107</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.82229605222</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015259</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117242</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>1272.415575117242</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5510,52 +5510,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647286</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368217</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>196.5408620426159</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235166</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336516</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949683</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,61 +5741,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>788.0191461778176</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1190.460190151587</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>969.6676110080573</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898187001</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>372.4964262156764</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,52 +6449,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>740.5562989961525</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556945</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>415.5933575433587</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2250.435511781783</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2030.834046804724</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1741.758820148922</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1487.074331943035</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1197.657161906075</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>969.6676110080573</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6929,55 +6929,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1702.079034721979</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>719.5738700011939</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>550.637687073287</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X37" t="n">
-        <v>1122.014913974964</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>901.2223348314336</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7211,10 +7211,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>594.8179559048574</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>446.9048623224643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>300.0149148245539</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>132.8188155394338</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111694</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075786</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>184.7035232280589</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>184.7035232280589</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806535</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>31.71340154579313</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>32.89260457059964</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>7.821049476758873</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>73.62417772602035</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>38.59775584152632</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>24.02235727160263</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856421</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>176.3785887617859</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>138.8202214113403</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>138.4949402405073</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>52.83923663127368</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>101.6825818796765</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>110.003342051664</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564666</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>918408.9720564663</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>918408.9720564664</v>
+        <v>918408.9720564665</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>918408.9720564665</v>
+        <v>918408.9720564664</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651773</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
@@ -26323,37 +26323,37 @@
         <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062539</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.894519977620803e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314492</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314489</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="E4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="F4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="F4" t="n">
-        <v>11167.03225179352</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26445,16 +26445,16 @@
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179355</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179352</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1013881.647146954</v>
+        <v>-1013881.647146953</v>
       </c>
       <c r="C6" t="n">
         <v>314863.098580639</v>
       </c>
       <c r="D6" t="n">
-        <v>314863.0985806389</v>
+        <v>314863.0985806385</v>
       </c>
       <c r="E6" t="n">
-        <v>66764.60092319753</v>
+        <v>66729.86299776209</v>
       </c>
       <c r="F6" t="n">
-        <v>392177.0627305531</v>
+        <v>392142.3248051175</v>
       </c>
       <c r="G6" t="n">
-        <v>392177.0627305532</v>
+        <v>392142.3248051172</v>
       </c>
       <c r="H6" t="n">
-        <v>392177.0627305535</v>
+        <v>392142.3248051175</v>
       </c>
       <c r="I6" t="n">
-        <v>392177.0627305531</v>
+        <v>392142.3248051173</v>
       </c>
       <c r="J6" t="n">
-        <v>174645.8603332755</v>
+        <v>174611.1224078396</v>
       </c>
       <c r="K6" t="n">
-        <v>392177.062730553</v>
+        <v>392142.3248051173</v>
       </c>
       <c r="L6" t="n">
-        <v>392177.0627305531</v>
+        <v>392142.3248051173</v>
       </c>
       <c r="M6" t="n">
-        <v>307122.0347950411</v>
+        <v>307087.2968696054</v>
       </c>
       <c r="N6" t="n">
-        <v>392177.0627305532</v>
+        <v>392142.3248051173</v>
       </c>
       <c r="O6" t="n">
-        <v>392177.0627305531</v>
+        <v>392142.3248051174</v>
       </c>
       <c r="P6" t="n">
-        <v>392177.0627305529</v>
+        <v>392142.3248051173</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,22 +26811,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>161.2723701802178</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>332.6248785068127</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>109.4420560932556</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>93.93657696562909</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>158.520714960758</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>186.5668494326261</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>94.35543628911221</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,16 +27831,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>143.4417529388361</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>95.82114036228444</v>
+        <v>19.51914657901762</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,19 +28059,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>200.7352943127866</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>104.4357718177142</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29451,7 +29451,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29676,7 +29676,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31865,7 +31865,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,28 +32072,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>390.1398273256867</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,7 +32102,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,34 +32312,34 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>463.4318227833011</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32707,7 +32707,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>476.0648089385468</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>303.4024373464761</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>537.262354434964</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>281.0363767960755</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>216.857296338707</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34448,13 +34448,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>714.9328157424943</v>
+        <v>414.644818552487</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -34469,7 +34469,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,28 +35720,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>256.1654199113564</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>320.8355783388566</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>337.5104291586726</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>165.5609983721171</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>394.6661099905195</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>138.9023428740572</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>90.01966967204032</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38096,13 +38096,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>572.7987818204761</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
